--- a/WebContent/res/概率分析.xlsx
+++ b/WebContent/res/概率分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20560" windowHeight="12900"/>
+    <workbookView windowWidth="20460" windowHeight="12900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -57,14 +57,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,8 +85,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -101,33 +124,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,9 +161,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,13 +186,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -170,35 +193,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -215,13 +215,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,163 +377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,8 +406,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -416,7 +416,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,8 +439,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,21 +490,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -485,168 +500,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1562,16 +1562,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>650875</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>427990</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>20955</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>448945</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>71120</xdr:rowOff>
+      <xdr:rowOff>70485</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1579,7 +1579,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4658360" y="904240"/>
+        <a:off x="5767070" y="903605"/>
         <a:ext cx="4572635" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -1851,17 +1851,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="26.6428571428571" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="8.57142857142857" customWidth="1"/>
+    <col min="5" max="5" width="9.57142857142857"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1903,7 +1904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1919,8 +1920,12 @@
         <f>B6*C6</f>
         <v>0.117649</v>
       </c>
+      <c r="E6">
+        <f>+A6*D6</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1936,8 +1941,12 @@
         <f t="shared" ref="D7:D12" si="2">B7*C7</f>
         <v>0.302526</v>
       </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E12" si="3">+A7*D7</f>
+        <v>0.302526</v>
+      </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1953,8 +1962,12 @@
         <f t="shared" si="2"/>
         <v>0.324135</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>0.64827</v>
+      </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1970,8 +1983,12 @@
         <f t="shared" si="2"/>
         <v>0.18522</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>0.55566</v>
+      </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1987,8 +2004,12 @@
         <f t="shared" si="2"/>
         <v>0.059535</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>0.23814</v>
+      </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>5</v>
       </c>
@@ -2004,8 +2025,12 @@
         <f t="shared" si="2"/>
         <v>0.010206</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>0.05103</v>
+      </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>6</v>
       </c>
@@ -2020,6 +2045,16 @@
       <c r="D12">
         <f t="shared" si="2"/>
         <v>0.000729</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>0.004374</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14">
+        <f>SUM(E6:E12)</f>
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>

--- a/WebContent/res/概率分析.xlsx
+++ b/WebContent/res/概率分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20460" windowHeight="12900"/>
+    <workbookView windowWidth="21360" windowHeight="12900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>N</t>
   </si>
@@ -36,6 +36,12 @@
   <si>
     <t>P(X=K)</t>
   </si>
+  <si>
+    <t>泊松分布</t>
+  </si>
+  <si>
+    <t>μ</t>
+  </si>
 </sst>
 </file>
 
@@ -44,8 +50,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -78,18 +84,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,15 +99,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -125,10 +115,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,15 +129,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,6 +145,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -169,9 +169,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,14 +205,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -215,13 +221,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,19 +233,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,7 +287,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,25 +311,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,19 +341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,7 +359,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,25 +377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,13 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,26 +427,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,31 +482,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,142 +511,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1015,7 +1021,586 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0838836038052602"/>
+          <c:y val="0.177456916627853"/>
+          <c:w val="0.883100167879127"/>
+          <c:h val="0.604657661853749"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>泊松分布</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$C$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.0497870683678639</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.149361205103592</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.224041807655388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.224041807655388</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.168031355741541</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.100818813444924</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0504094067224622</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0216040314524838</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.00810151179468143</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00270050393156048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.000810151179468143</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.00022095032167313</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.52375804182825e-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.27471339426806e-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.73152870200298e-6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.46305740400596e-7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.02432326325112e-7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.80762928809021e-8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.01271548015035e-9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.75691917918476e-10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.13537876877713e-11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.01933982411102e-11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.39000885106048e-12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.81305502312237e-13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.26631877890296e-14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.71958253468355e-15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.13797984771179e-16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.48664427523532e-17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.73569029489499e-18</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.8645072016155e-19</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.8645072016155e-20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.73984567898274e-21</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.50610532404632e-22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.18736847640575e-23</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.81238394976978e-24</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.41061481408838e-25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.00884567840698e-26</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.62879379330296e-27</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.28588983681813e-28</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.89146028321636e-30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="693971059"/>
+        <c:axId val="268287542"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="693971059"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="268287542"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="268287542"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693971059"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1558,6 +2143,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1579,12 +2667,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5767070" y="903605"/>
+        <a:off x="5822950" y="903605"/>
         <a:ext cx="4572635" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>203835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123190</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4847590" y="4003675"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1851,16 +2969,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="26.6428571428571" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12.7857142857143" customWidth="1"/>
     <col min="4" max="4" width="8.57142857142857" customWidth="1"/>
     <col min="5" max="5" width="9.57142857142857"/>
   </cols>
@@ -2057,6 +3175,385 @@
         <v>1.8</v>
       </c>
     </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f>$A$20^B20/(EXP($A$20)*FACT(B20))</f>
+        <v>0.0497870683678639</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:C41" si="4">$A$20^B21/(EXP($A$20)*FACT(B21))</f>
+        <v>0.149361205103592</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="4"/>
+        <v>0.224041807655388</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="4"/>
+        <v>0.224041807655388</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="4"/>
+        <v>0.168031355741541</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>0.100818813444924</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>0.0504094067224622</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>0.0216040314524838</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>0.00810151179468143</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>0.00270050393156048</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="4"/>
+        <v>0.000810151179468143</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="4"/>
+        <v>0.00022095032167313</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="4"/>
+        <v>5.52375804182825e-5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="4"/>
+        <v>1.27471339426806e-5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="4"/>
+        <v>2.73152870200298e-6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>5.46305740400596e-7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="4"/>
+        <v>1.02432326325112e-7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37">
+        <v>17</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="4"/>
+        <v>1.80762928809021e-8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="4"/>
+        <v>3.01271548015035e-9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="4"/>
+        <v>4.75691917918476e-10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="4"/>
+        <v>7.13537876877713e-11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41">
+        <v>21</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="4"/>
+        <v>1.01933982411102e-11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42">
+        <v>22</v>
+      </c>
+      <c r="C42">
+        <f>$A$20^B42/(EXP($A$20)*FACT(B42))</f>
+        <v>1.39000885106048e-12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43">
+        <v>23</v>
+      </c>
+      <c r="C43">
+        <f>$A$20^B43/(EXP($A$20)*FACT(B43))</f>
+        <v>1.81305502312237e-13</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44">
+        <v>24</v>
+      </c>
+      <c r="C44">
+        <f>$A$20^B44/(EXP($A$20)*FACT(B44))</f>
+        <v>2.26631877890296e-14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45">
+        <v>25</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:C52" si="5">$A$20^B45/(EXP($A$20)*FACT(B45))</f>
+        <v>2.71958253468355e-15</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46">
+        <v>26</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="5"/>
+        <v>3.13797984771179e-16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47">
+        <v>27</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="5"/>
+        <v>3.48664427523532e-17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48">
+        <v>28</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="5"/>
+        <v>3.73569029489499e-18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49">
+        <v>29</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="5"/>
+        <v>3.8645072016155e-19</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50">
+        <v>30</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="5"/>
+        <v>3.8645072016155e-20</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51">
+        <v>31</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="5"/>
+        <v>3.73984567898274e-21</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52">
+        <v>32</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="5"/>
+        <v>3.50610532404632e-22</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53">
+        <v>33</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:C59" si="6">$A$20^B53/(EXP($A$20)*FACT(B53))</f>
+        <v>3.18736847640575e-23</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54">
+        <v>34</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="6"/>
+        <v>2.81238394976978e-24</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55">
+        <v>35</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="6"/>
+        <v>2.41061481408838e-25</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56">
+        <v>36</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="6"/>
+        <v>2.00884567840698e-26</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57">
+        <v>37</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="6"/>
+        <v>1.62879379330296e-27</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58">
+        <v>38</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="6"/>
+        <v>1.28588983681813e-28</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59">
+        <v>39</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="6"/>
+        <v>9.89146028321636e-30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
